--- a/project/files/friedman_results/friedman_results.xlsx
+++ b/project/files/friedman_results/friedman_results.xlsx
@@ -11,6 +11,8 @@
     <sheet name="Analysis1_Friedman" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Analysis2_Descriptive" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Analysis2_Friedman" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Analysis1_PostHoc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Analysis2_PostHoc" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,28 +492,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>23.17</v>
+        <v>22.32</v>
       </c>
       <c r="D2" t="n">
-        <v>29.98722222222223</v>
+        <v>23.63375</v>
       </c>
       <c r="E2" t="n">
-        <v>22.31666666666667</v>
+        <v>21.14083333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>34.51833333333334</v>
+        <v>23.21583333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>12.20166666666667</v>
+        <v>2.074999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>21.51333333333333</v>
+        <v>17.91</v>
       </c>
       <c r="I2" t="n">
-        <v>51.73666666666666</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="3">
@@ -521,28 +523,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>26.005</v>
+        <v>22.475</v>
       </c>
       <c r="D3" t="n">
-        <v>31.27777777777778</v>
+        <v>23.45833333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>23.075</v>
+        <v>20.28</v>
       </c>
       <c r="F3" t="n">
-        <v>30.025</v>
+        <v>25.2175</v>
       </c>
       <c r="G3" t="n">
-        <v>6.949999999999999</v>
+        <v>4.9375</v>
       </c>
       <c r="H3" t="n">
-        <v>22.32666666666666</v>
+        <v>19.48</v>
       </c>
       <c r="I3" t="n">
-        <v>59.86666666666667</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="4">
@@ -552,28 +554,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>23.525</v>
+        <v>23.265</v>
       </c>
       <c r="D4" t="n">
-        <v>28.555</v>
+        <v>24.95958333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>23.22416666666667</v>
+        <v>22.71833333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>32.94833333333334</v>
+        <v>24.72</v>
       </c>
       <c r="G4" t="n">
-        <v>9.724166666666672</v>
+        <v>2.001666666666665</v>
       </c>
       <c r="H4" t="n">
-        <v>22.37333333333333</v>
+        <v>20.43666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>42.69333333333334</v>
+        <v>36.03</v>
       </c>
     </row>
     <row r="5">
@@ -583,28 +585,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>25.96666666666667</v>
+        <v>23.78</v>
       </c>
       <c r="D5" t="n">
-        <v>29.78611111111111</v>
+        <v>24.28083333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>22.95416666666667</v>
+        <v>22.36166666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>27.92666666666667</v>
+        <v>25.78416666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9725</v>
+        <v>3.422499999999999</v>
       </c>
       <c r="H5" t="n">
         <v>21.31333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>54.94</v>
+        <v>28.13666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -614,28 +616,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>27.97666666666667</v>
+        <v>27.37</v>
       </c>
       <c r="D6" t="n">
-        <v>31.56055555555556</v>
+        <v>26.79875</v>
       </c>
       <c r="E6" t="n">
-        <v>24.7925</v>
+        <v>24.03416666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>29.37083333333333</v>
+        <v>28.5525</v>
       </c>
       <c r="G6" t="n">
-        <v>4.578333333333333</v>
+        <v>4.518333333333338</v>
       </c>
       <c r="H6" t="n">
         <v>23.60666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>56.23666666666667</v>
+        <v>30.21666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -691,16 +693,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.365625</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.266666666666667</v>
+        <v>11.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3711177309099183</v>
+        <v>0.01972730923290446</v>
       </c>
     </row>
   </sheetData>
@@ -776,28 +778,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>24.075</v>
+        <v>21.545</v>
       </c>
       <c r="D2" t="n">
-        <v>29.98722222222222</v>
+        <v>23.63375</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2575</v>
+        <v>20.1225</v>
       </c>
       <c r="F2" t="n">
-        <v>33.49</v>
+        <v>24.5225</v>
       </c>
       <c r="G2" t="n">
-        <v>12.2325</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>18.44</v>
+        <v>17.21</v>
       </c>
       <c r="I2" t="n">
-        <v>76.69</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="3">
@@ -807,28 +809,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>24.905</v>
+        <v>22.275</v>
       </c>
       <c r="D3" t="n">
-        <v>31.27777777777778</v>
+        <v>23.45833333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3925</v>
+        <v>20.8525</v>
       </c>
       <c r="F3" t="n">
-        <v>32.285</v>
+        <v>24.8075</v>
       </c>
       <c r="G3" t="n">
-        <v>8.892499999999998</v>
+        <v>3.955000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>21.15</v>
+        <v>17.95</v>
       </c>
       <c r="I3" t="n">
-        <v>81.19</v>
+        <v>32.93</v>
       </c>
     </row>
     <row r="4">
@@ -838,28 +840,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>23.81</v>
+        <v>23.445</v>
       </c>
       <c r="D4" t="n">
-        <v>28.555</v>
+        <v>24.95958333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>22.895</v>
+        <v>20.9275</v>
       </c>
       <c r="F4" t="n">
-        <v>35.18</v>
+        <v>26.565</v>
       </c>
       <c r="G4" t="n">
-        <v>12.285</v>
+        <v>5.637500000000003</v>
       </c>
       <c r="H4" t="n">
         <v>19.5</v>
       </c>
       <c r="I4" t="n">
-        <v>50.03</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="5">
@@ -869,28 +871,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>25.425</v>
+        <v>23.21</v>
       </c>
       <c r="D5" t="n">
-        <v>29.78611111111111</v>
+        <v>24.28083333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>22.585</v>
+        <v>22.07</v>
       </c>
       <c r="F5" t="n">
-        <v>29.095</v>
+        <v>25.825</v>
       </c>
       <c r="G5" t="n">
-        <v>6.509999999999998</v>
+        <v>3.754999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>20.85</v>
+        <v>20.31</v>
       </c>
       <c r="I5" t="n">
-        <v>66.34</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="6">
@@ -900,28 +902,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>26.315</v>
+        <v>26.05</v>
       </c>
       <c r="D6" t="n">
-        <v>31.56055555555556</v>
+        <v>26.79875</v>
       </c>
       <c r="E6" t="n">
-        <v>24.4525</v>
+        <v>24.6125</v>
       </c>
       <c r="F6" t="n">
-        <v>31.7825</v>
+        <v>29.8525</v>
       </c>
       <c r="G6" t="n">
-        <v>7.329999999999998</v>
+        <v>5.239999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>22.78</v>
+        <v>21.94</v>
       </c>
       <c r="I6" t="n">
-        <v>61.91</v>
+        <v>31.97</v>
       </c>
     </row>
   </sheetData>
@@ -977,16 +979,1068 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.365625</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.266666666666667</v>
+        <v>11.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3711177309099183</v>
+        <v>0.01972730923290446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paired</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Parametric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W-val</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>p-unc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p-corr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>p-adjust</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1953125</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.328125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3828125</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1953125</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.078125</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.234375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paired</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Parametric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W-val</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>p-unc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p-corr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>p-adjust</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1953125</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.328125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3828125</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1953125</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.078125</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.234375</v>
       </c>
     </row>
   </sheetData>
